--- a/Examples/Excel/ReprPortfolioSimple.xlsx
+++ b/Examples/Excel/ReprPortfolioSimple.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelkoller/Documents/Vorles/AKLV/aklv/aklv/Examples/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5FC051-76A4-9E47-BE29-E3ACFAF26C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4A4FD3-DE56-084D-91A5-99E53C51EEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="17220" xr2:uid="{238FC3A1-76D2-4F4E-BBF9-0D0FE496D863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -223,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,26 +308,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,17 +675,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCD7F9C-49CF-484E-AF63-495E19AD8241}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -759,7 +778,7 @@
         <f>D6/D5</f>
         <v>0.99000200820495166</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f>1-I5</f>
         <v>9.9979917950483443E-3</v>
       </c>
@@ -787,10 +806,10 @@
         <v>22</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I14" si="0">D7/D6</f>
+        <f t="shared" ref="I6:I13" si="0">D7/D6</f>
         <v>0.98900270947737523</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <f t="shared" ref="J6:J13" si="1">1-I6</f>
         <v>1.099729052262477E-2</v>
       </c>
@@ -821,7 +840,7 @@
         <f t="shared" si="0"/>
         <v>0.98799408127984989</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>1.2005918720150111E-2</v>
       </c>
@@ -852,7 +871,7 @@
         <f t="shared" si="0"/>
         <v>0.98700297307917584</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>1.2997026920824162E-2</v>
       </c>
@@ -883,7 +902,7 @@
         <f t="shared" si="0"/>
         <v>0.98599801688651179</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>1.4001983113488214E-2</v>
       </c>
@@ -914,7 +933,7 @@
         <f t="shared" si="0"/>
         <v>0.98499923815328372</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>1.5000761846716282E-2</v>
       </c>
@@ -945,7 +964,7 @@
         <f t="shared" si="0"/>
         <v>0.9840050738257109</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>1.5994926174289104E-2</v>
       </c>
@@ -976,7 +995,7 @@
         <f t="shared" si="0"/>
         <v>0.98299835721528328</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>1.700164278471672E-2</v>
       </c>
@@ -1007,7 +1026,7 @@
         <f t="shared" si="0"/>
         <v>0.98200063969294737</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>1.7999360307052625E-2</v>
       </c>
@@ -1230,7 +1249,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" ref="A28:A37" si="7">A27+1</f>
+        <f t="shared" ref="A28:A36" si="7">A27+1</f>
         <v>52</v>
       </c>
       <c r="B28" s="4">
@@ -1594,6 +1613,12 @@
         <v>1372.874113818121</v>
       </c>
     </row>
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="14">
+        <f>SUM(J26:J36)</f>
+        <v>1.8189894035458565E-12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
